--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2C452-5A85-4B03-9233-69C3AC29E5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86869DC8-BFDF-4602-9489-D447F3290096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,54 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Wednesday 6 April 2022</t>
+  </si>
+  <si>
+    <t>12:30-13:00</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Saturday 9 April 2022</t>
+  </si>
+  <si>
+    <t>14:00-18:00</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Save and Load Functionality</t>
+  </si>
+  <si>
+    <t>Sunday 10 April 2022</t>
+  </si>
+  <si>
+    <t>12:00-14:30</t>
+  </si>
+  <si>
+    <t>Language Support</t>
+  </si>
+  <si>
+    <t>Thursday 7 April 2022</t>
+  </si>
+  <si>
+    <t>17:00-22:00</t>
+  </si>
+  <si>
+    <t>Simple logging functions</t>
+  </si>
+  <si>
+    <t>Monday 11 April 2022</t>
+  </si>
+  <si>
+    <t>11:00-13:00</t>
+  </si>
+  <si>
+    <t>Basic Entity Functionality (And test entity)</t>
   </si>
 </sst>
 </file>
@@ -66,8 +114,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -219,10 +267,10 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,25 +611,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F2"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="107.140625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="3.7109375" style="6"/>
+    <col min="1" max="1" width="34.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="107.109375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="3.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -598,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>44652</v>
       </c>
@@ -613,6 +661,88 @@
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86869DC8-BFDF-4602-9489-D447F3290096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59AC77-C2BD-4D2F-B728-B199979549C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Basic Entity Functionality (And test entity)</t>
+  </si>
+  <si>
+    <t>Wednesday 13 April 2022</t>
+  </si>
+  <si>
+    <t>11:00-22:00</t>
+  </si>
+  <si>
+    <t>Entire implementation of the main menu, input controls, player entity, bullet functionality.</t>
   </si>
 </sst>
 </file>
@@ -611,17 +620,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" style="4" customWidth="1"/>
@@ -745,6 +754,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59AC77-C2BD-4D2F-B728-B199979549C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3702E0-F136-4B61-8FB0-CE7823A1A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Entire implementation of the main menu, input controls, player entity, bullet functionality.</t>
+  </si>
+  <si>
+    <t>22:00-01:00</t>
+  </si>
+  <si>
+    <t>Some basic task system functionality.</t>
   </si>
 </sst>
 </file>
@@ -620,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,6 +777,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3702E0-F136-4B61-8FB0-CE7823A1A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223EC789-45D2-4051-B610-6AF2368C5D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Some basic task system functionality.</t>
+  </si>
+  <si>
+    <t>Thursday 14 April 2022</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>Beginning score system and lives system.</t>
   </si>
 </sst>
 </file>
@@ -626,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +803,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223EC789-45D2-4051-B610-6AF2368C5D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170FBAAB-78FA-4C54-BA5C-42AC67F0C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Programming</t>
   </si>
   <si>
-    <t>Save and Load Functionality</t>
-  </si>
-  <si>
     <t>Sunday 10 April 2022</t>
   </si>
   <si>
@@ -131,6 +128,27 @@
   </si>
   <si>
     <t>Beginning score system and lives system.</t>
+  </si>
+  <si>
+    <t>Saturday 16 April 2022</t>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+  </si>
+  <si>
+    <t>Enemy entity and window changes.</t>
+  </si>
+  <si>
+    <t>Monday 18 April 2022</t>
+  </si>
+  <si>
+    <t>13:00-23:00</t>
+  </si>
+  <si>
+    <t>Major bugfixing and save functionality.</t>
+  </si>
+  <si>
+    <t>Base world system.</t>
   </si>
 </sst>
 </file>
@@ -635,25 +653,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="107.109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="3.6640625" style="6"/>
+    <col min="1" max="1" width="34.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="107.140625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="3.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -670,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>44652</v>
       </c>
@@ -687,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,12 +719,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
@@ -715,10 +733,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -732,15 +750,15 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>2.5</v>
@@ -749,15 +767,15 @@
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -766,15 +784,15 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -783,15 +801,15 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
@@ -800,15 +818,15 @@
         <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -817,7 +835,41 @@
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170FBAAB-78FA-4C54-BA5C-42AC67F0C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E5A2B-01D9-47FC-B9F2-8B84E3B072CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -142,13 +142,22 @@
     <t>Monday 18 April 2022</t>
   </si>
   <si>
-    <t>13:00-23:00</t>
-  </si>
-  <si>
-    <t>Major bugfixing and save functionality.</t>
-  </si>
-  <si>
     <t>Base world system.</t>
+  </si>
+  <si>
+    <t>13:00-24:00</t>
+  </si>
+  <si>
+    <t>Options functionality and persistant data.</t>
+  </si>
+  <si>
+    <t>Tuesday 19 April 2022</t>
+  </si>
+  <si>
+    <t>03:30-05:00</t>
+  </si>
+  <si>
+    <t>Save and high score system.</t>
   </si>
 </sst>
 </file>
@@ -653,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -860,16 +869,33 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E5A2B-01D9-47FC-B9F2-8B84E3B072CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0C28A-9528-400D-8EA9-BFDCF1F46FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Save and high score system.</t>
+  </si>
+  <si>
+    <t>15:00-23:00</t>
+  </si>
+  <si>
+    <t>Pausing. Score and name saving system. Small enemy changes.</t>
   </si>
 </sst>
 </file>
@@ -324,9 +330,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -346,6 +349,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -662,38 +668,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="107.140625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="3.7109375" style="6"/>
+    <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="107.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="3.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -704,13 +710,13 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -721,10 +727,10 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -735,13 +741,13 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -752,13 +758,13 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -769,13 +775,13 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>2.5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -786,13 +792,13 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -803,13 +809,13 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -820,13 +826,13 @@
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -837,13 +843,13 @@
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -854,13 +860,13 @@
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -871,13 +877,13 @@
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -888,17 +894,44 @@
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>1.5</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0C28A-9528-400D-8EA9-BFDCF1F46FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAFBC9-8649-4582-A079-A458091A09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Pausing. Score and name saving system. Small enemy changes.</t>
+  </si>
+  <si>
+    <t>Wednesday 20 April 2022</t>
+  </si>
+  <si>
+    <t>14:00-22:00</t>
+  </si>
+  <si>
+    <t>Faster entity storage system. Beginning level design. Boss design.</t>
   </si>
 </sst>
 </file>
@@ -668,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +930,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="10">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="colorScale" priority="1">

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAFBC9-8649-4582-A079-A458091A09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6796B-31A8-4E52-A870-270DFC736BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -46,18 +46,12 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
     <t>10:00-12:00</t>
   </si>
   <si>
     <t>Project Specification</t>
   </si>
   <si>
-    <t>Game Description</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>14:00-18:00</t>
   </si>
   <si>
-    <t>Programming</t>
-  </si>
-  <si>
     <t>Sunday 10 April 2022</t>
   </si>
   <si>
@@ -169,10 +160,10 @@
     <t>Wednesday 20 April 2022</t>
   </si>
   <si>
-    <t>14:00-22:00</t>
-  </si>
-  <si>
     <t>Faster entity storage system. Beginning level design. Boss design.</t>
+  </si>
+  <si>
+    <t>14:00-23:00</t>
   </si>
 </sst>
 </file>
@@ -227,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -249,19 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -331,18 +309,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -351,16 +329,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -677,11 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,13 +664,12 @@
     <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="107.140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="3.7109375" style="5"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="3.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -703,248 +677,206 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>44652</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="10">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="10">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6796B-31A8-4E52-A870-270DFC736BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637FDAF-AE47-471A-B59B-9A5EC5191CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>14:00-23:00</t>
+  </si>
+  <si>
+    <t>Thursday 21 April 2022</t>
+  </si>
+  <si>
+    <t>19:00-05:00</t>
+  </si>
+  <si>
+    <t>Major polish and level design.</t>
   </si>
 </sst>
 </file>
@@ -652,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,6 +888,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="colorScale" priority="1">

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637FDAF-AE47-471A-B59B-9A5EC5191CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA93B4-C1B1-40D5-AC77-EEA9F8E5779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Major polish and level design.</t>
+  </si>
+  <si>
+    <t>Friday 22 April 2022</t>
+  </si>
+  <si>
+    <t>17:00-03:00</t>
+  </si>
+  <si>
+    <t>Level polish and Documentation.</t>
   </si>
 </sst>
 </file>
@@ -661,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +911,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="colorScale" priority="1">

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA93B4-C1B1-40D5-AC77-EEA9F8E5779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63592253-792D-41D5-9CF7-BA83AA3C4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
@@ -178,10 +178,10 @@
     <t>Friday 22 April 2022</t>
   </si>
   <si>
-    <t>17:00-03:00</t>
-  </si>
-  <si>
     <t>Level polish and Documentation.</t>
+  </si>
+  <si>
+    <t>17:00-06:00</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,13 +916,13 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="9">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63592253-792D-41D5-9CF7-BA83AA3C4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C80E3-4042-48A7-9D8C-4EB53F58BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
+    <workbookView xWindow="-4635" yWindow="7380" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>17:00-06:00</t>
+  </si>
+  <si>
+    <t>Saturday 23 April 2022</t>
+  </si>
+  <si>
+    <t>20:00-24:00</t>
+  </si>
+  <si>
+    <t>Final game polish and visuals.</t>
   </si>
 </sst>
 </file>
@@ -670,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,6 +934,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="colorScale" priority="1">

--- a/projectJournal.xlsx
+++ b/projectJournal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmyMi\Documents\College\psychic-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C80E3-4042-48A7-9D8C-4EB53F58BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BC666F-C05B-4430-91F9-2498F8E4DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4635" yWindow="7380" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
+    <workbookView xWindow="5430" yWindow="1890" windowWidth="21600" windowHeight="12585" xr2:uid="{F17A8DAE-DCCF-4D99-88A2-688B9328FBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -187,10 +187,22 @@
     <t>Saturday 23 April 2022</t>
   </si>
   <si>
+    <t>Final game polish and visuals.</t>
+  </si>
+  <si>
+    <t>20:00-00:30</t>
+  </si>
+  <si>
+    <t>Sunday 24 April 2022</t>
+  </si>
+  <si>
     <t>20:00-24:00</t>
   </si>
   <si>
-    <t>Final game polish and visuals.</t>
+    <t>Final documentation completion and screencast finalization.</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
@@ -218,8 +229,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -332,37 +351,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -679,277 +809,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C6DC7B-4D2D-451F-89A0-A814AEACCE79}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="97.140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="3.7109375" style="5"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="11">
         <v>44652</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>0.5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="2">
         <v>2.5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="2">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="2">
         <v>1.5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="2">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="9">
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E19" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="22">
+        <f>SUM(D2:D19)</f>
+        <v>97</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D1048576">
+  <conditionalFormatting sqref="D2:D19 D21:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
